--- a/ridership/total/total.xlsx
+++ b/ridership/total/total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="331">
   <si>
     <t>Weekday</t>
   </si>
@@ -986,6 +986,27 @@
   </si>
   <si>
     <t>24 Jul 2016</t>
+  </si>
+  <si>
+    <t>25 Jul 2016</t>
+  </si>
+  <si>
+    <t>26 Jul 2016</t>
+  </si>
+  <si>
+    <t>27 Jul 2016</t>
+  </si>
+  <si>
+    <t>28 Jul 2016</t>
+  </si>
+  <si>
+    <t>29 Jul 2016</t>
+  </si>
+  <si>
+    <t>30 Jul 2016</t>
+  </si>
+  <si>
+    <t>31 Jul 2016</t>
   </si>
 </sst>
 </file>
@@ -1076,9 +1097,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$313</c:f>
+              <c:f>Ridership!$B$2:$B$320</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -2014,16 +2035,37 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>24 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>25 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>26 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>27 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>28 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>29 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>30 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>31 Jul 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$C$2:$C$313</c:f>
+              <c:f>Ridership!$C$2:$C$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2919,7 +2961,7 @@
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>183</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>176</c:v>
@@ -2952,13 +2994,34 @@
                   <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>252</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2982,9 +3045,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$313</c:f>
+              <c:f>Ridership!$B$2:$B$320</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -3920,16 +3983,37 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>24 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>25 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>26 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>27 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>28 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>29 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>30 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>31 Jul 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$D$2:$D$313</c:f>
+              <c:f>Ridership!$D$2:$D$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -4825,7 +4909,7 @@
                   <c:v>28.74</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>86.2</c:v>
+                  <c:v>86.53</c:v>
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>87.41</c:v>
@@ -4846,7 +4930,7 @@
                   <c:v>30.09</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>87.78</c:v>
+                  <c:v>88.1</c:v>
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>88.91</c:v>
@@ -4858,13 +4942,34 @@
                   <c:v>94.17</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>89.4</c:v>
+                  <c:v>89.7</c:v>
                 </c:pt>
                 <c:pt idx="310">
                   <c:v>37.86</c:v>
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>31.49</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>90.4</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>91.98</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>98.04</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>95.98</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>92.34</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>39.73</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>32.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4888,9 +4993,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ridership!$B$2:$B$313</c:f>
+              <c:f>Ridership!$B$2:$B$320</c:f>
               <c:strCache>
-                <c:ptCount val="312"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>31 Aug 2015</c:v>
                 </c:pt>
@@ -5826,16 +5931,37 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>24 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>25 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>26 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>27 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>28 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>29 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>30 Jul 2016</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>31 Jul 2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ridership!$E$2:$E$313</c:f>
+              <c:f>Ridership!$E$2:$E$320</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="312"/>
+                <c:ptCount val="319"/>
                 <c:pt idx="0">
                   <c:v>19.4</c:v>
                 </c:pt>
@@ -6771,6 +6897,27 @@
                 </c:pt>
                 <c:pt idx="311">
                   <c:v>68.51</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>68.66</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>68.81</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>68.96</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>69.11</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>69.26</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>69.41</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>69.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6863,13 +7010,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7177,7 +7324,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E313"/>
+  <dimension ref="A1:E320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12281,10 +12428,10 @@
         <v>310</v>
       </c>
       <c r="C300">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D300">
-        <v>86.2</v>
+        <v>86.53</v>
       </c>
       <c r="E300">
         <v>66.56</v>
@@ -12403,7 +12550,7 @@
         <v>151</v>
       </c>
       <c r="D307">
-        <v>87.78</v>
+        <v>88.1</v>
       </c>
       <c r="E307">
         <v>67.61</v>
@@ -12468,10 +12615,10 @@
         <v>321</v>
       </c>
       <c r="C311">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D311">
-        <v>89.4</v>
+        <v>89.7</v>
       </c>
       <c r="E311">
         <v>68.21</v>
@@ -12509,6 +12656,125 @@
       </c>
       <c r="E313">
         <v>68.51</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" t="s">
+        <v>324</v>
+      </c>
+      <c r="C314">
+        <v>185</v>
+      </c>
+      <c r="D314">
+        <v>90.4</v>
+      </c>
+      <c r="E314">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>7</v>
+      </c>
+      <c r="B315" t="s">
+        <v>325</v>
+      </c>
+      <c r="C315">
+        <v>236</v>
+      </c>
+      <c r="D315">
+        <v>91.98</v>
+      </c>
+      <c r="E315">
+        <v>68.81</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" t="s">
+        <v>326</v>
+      </c>
+      <c r="C316">
+        <v>209</v>
+      </c>
+      <c r="D316">
+        <v>98.04</v>
+      </c>
+      <c r="E316">
+        <v>68.96</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>11</v>
+      </c>
+      <c r="B317" t="s">
+        <v>327</v>
+      </c>
+      <c r="C317">
+        <v>179</v>
+      </c>
+      <c r="D317">
+        <v>95.98</v>
+      </c>
+      <c r="E317">
+        <v>69.11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>328</v>
+      </c>
+      <c r="C318">
+        <v>206</v>
+      </c>
+      <c r="D318">
+        <v>92.34</v>
+      </c>
+      <c r="E318">
+        <v>69.26</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>18</v>
+      </c>
+      <c r="B319" t="s">
+        <v>329</v>
+      </c>
+      <c r="C319">
+        <v>122</v>
+      </c>
+      <c r="D319">
+        <v>39.73</v>
+      </c>
+      <c r="E319">
+        <v>69.41</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>20</v>
+      </c>
+      <c r="B320" t="s">
+        <v>330</v>
+      </c>
+      <c r="C320">
+        <v>100</v>
+      </c>
+      <c r="D320">
+        <v>32.98</v>
+      </c>
+      <c r="E320">
+        <v>69.56</v>
       </c>
     </row>
   </sheetData>
